--- a/Code/Results/Cases/Case_5_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_154/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.77123767931137</v>
+        <v>15.28031864006898</v>
       </c>
       <c r="C2">
-        <v>12.04586937563361</v>
+        <v>10.92053664895577</v>
       </c>
       <c r="D2">
-        <v>4.184189789588067</v>
+        <v>5.060179375518758</v>
       </c>
       <c r="E2">
-        <v>7.478531045956732</v>
+        <v>12.55291291216699</v>
       </c>
       <c r="F2">
-        <v>20.60252605270426</v>
+        <v>25.98620036343339</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.14221383249884</v>
+        <v>9.860504489982578</v>
       </c>
       <c r="M2">
-        <v>11.79746275294315</v>
+        <v>14.82307386167019</v>
       </c>
       <c r="N2">
-        <v>12.11389259385994</v>
+        <v>18.24257211158297</v>
       </c>
       <c r="O2">
-        <v>16.29565796066757</v>
+        <v>23.16192675530845</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.42829367585351</v>
+        <v>14.84093108786048</v>
       </c>
       <c r="C3">
-        <v>11.60575806388237</v>
+        <v>10.75685622766351</v>
       </c>
       <c r="D3">
-        <v>4.094488868191601</v>
+        <v>5.032157787610223</v>
       </c>
       <c r="E3">
-        <v>7.575787344994129</v>
+        <v>12.59217483257685</v>
       </c>
       <c r="F3">
-        <v>19.95139073058745</v>
+        <v>25.95894039593519</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.058446682682562</v>
+        <v>9.86796940765001</v>
       </c>
       <c r="M3">
-        <v>11.25852960983894</v>
+        <v>14.737808707223</v>
       </c>
       <c r="N3">
-        <v>12.30123712016485</v>
+        <v>18.30153048265195</v>
       </c>
       <c r="O3">
-        <v>16.01116253112233</v>
+        <v>23.19811678039142</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.55507301448808</v>
+        <v>14.56694563306105</v>
       </c>
       <c r="C4">
-        <v>11.32644193424776</v>
+        <v>10.65417043017142</v>
       </c>
       <c r="D4">
-        <v>4.038113857989834</v>
+        <v>5.014649981082597</v>
       </c>
       <c r="E4">
-        <v>7.637929101817618</v>
+        <v>12.61762104840495</v>
       </c>
       <c r="F4">
-        <v>19.56136630840729</v>
+        <v>25.94989977007697</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.00928401068759</v>
+        <v>9.873900732569469</v>
       </c>
       <c r="M4">
-        <v>10.91863962679222</v>
+        <v>14.68755931435057</v>
       </c>
       <c r="N4">
-        <v>12.419456972979</v>
+        <v>18.33958109138847</v>
       </c>
       <c r="O4">
-        <v>15.85013236762405</v>
+        <v>23.22626614977709</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.18691977123185</v>
+        <v>14.45441237404889</v>
       </c>
       <c r="C5">
-        <v>11.21043697793289</v>
+        <v>10.61180508330514</v>
       </c>
       <c r="D5">
-        <v>4.01483253459521</v>
+        <v>5.007441558837296</v>
       </c>
       <c r="E5">
-        <v>7.663862427077829</v>
+        <v>12.62832814387292</v>
       </c>
       <c r="F5">
-        <v>19.4050797340812</v>
+        <v>25.94815357830808</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.989829913382104</v>
+        <v>9.876657197928937</v>
       </c>
       <c r="M5">
-        <v>10.7780577728449</v>
+        <v>14.66762743703651</v>
       </c>
       <c r="N5">
-        <v>12.46844470363514</v>
+        <v>18.35555340575683</v>
       </c>
       <c r="O5">
-        <v>15.78792025000177</v>
+        <v>23.23922446858853</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.1250425908243</v>
+        <v>14.43567834406985</v>
       </c>
       <c r="C6">
-        <v>11.19104597519024</v>
+        <v>10.6047398180716</v>
       </c>
       <c r="D6">
-        <v>4.010948641548412</v>
+        <v>5.006240209850445</v>
       </c>
       <c r="E6">
-        <v>7.668205488872442</v>
+        <v>12.63012645987443</v>
       </c>
       <c r="F6">
-        <v>19.3792942644586</v>
+        <v>25.94798070707382</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.986634854886884</v>
+        <v>9.877135418629786</v>
       </c>
       <c r="M6">
-        <v>10.75459494053575</v>
+        <v>14.66435114725347</v>
       </c>
       <c r="N6">
-        <v>12.47662843245872</v>
+        <v>18.35823380028428</v>
       </c>
       <c r="O6">
-        <v>15.77779493337085</v>
+        <v>23.24146589712077</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.55015790864427</v>
+        <v>14.56543130318199</v>
       </c>
       <c r="C7">
-        <v>11.32488613681809</v>
+        <v>10.65360114238102</v>
       </c>
       <c r="D7">
-        <v>4.037801100116408</v>
+        <v>5.014553061891352</v>
       </c>
       <c r="E7">
-        <v>7.638276377322797</v>
+        <v>12.61776408022724</v>
       </c>
       <c r="F7">
-        <v>19.55924758116197</v>
+        <v>25.94986837183609</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.00901928596085</v>
+        <v>9.873936532414616</v>
       </c>
       <c r="M7">
-        <v>10.91675182370105</v>
+        <v>14.68728827799356</v>
       </c>
       <c r="N7">
-        <v>12.42011433659123</v>
+        <v>18.33979460964699</v>
       </c>
       <c r="O7">
-        <v>15.84927959077999</v>
+        <v>23.22643489363529</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.31824125195869</v>
+        <v>15.12979048646461</v>
       </c>
       <c r="C8">
-        <v>11.896062738492</v>
+        <v>10.86457061348768</v>
       </c>
       <c r="D8">
-        <v>4.153541087336979</v>
+        <v>5.050581620160253</v>
       </c>
       <c r="E8">
-        <v>7.511561415341339</v>
+        <v>12.56617294193402</v>
       </c>
       <c r="F8">
-        <v>20.37610116729549</v>
+        <v>25.97520559019668</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.112865410958681</v>
+        <v>9.862798955286911</v>
       </c>
       <c r="M8">
-        <v>11.61360559662785</v>
+        <v>14.79324771467093</v>
       </c>
       <c r="N8">
-        <v>12.17783306712158</v>
+        <v>18.26251772875186</v>
       </c>
       <c r="O8">
-        <v>16.19472000172656</v>
+        <v>23.17317262950706</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.4029464802782</v>
+        <v>16.19609998333182</v>
       </c>
       <c r="C9">
-        <v>12.94017251526032</v>
+        <v>11.25969596024865</v>
       </c>
       <c r="D9">
-        <v>4.369453433261262</v>
+        <v>5.118738642219551</v>
       </c>
       <c r="E9">
-        <v>7.282337932230458</v>
+        <v>12.47559282237686</v>
       </c>
       <c r="F9">
-        <v>22.04727284911482</v>
+        <v>26.0857779604875</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.334085306581866</v>
+        <v>9.851629899209149</v>
       </c>
       <c r="M9">
-        <v>12.94741332125259</v>
+        <v>15.01698409123924</v>
       </c>
       <c r="N9">
-        <v>11.72757417788569</v>
+        <v>18.125601281507</v>
       </c>
       <c r="O9">
-        <v>16.98096262973666</v>
+        <v>23.11590196647006</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.44106096050275</v>
+        <v>16.94625651222384</v>
       </c>
       <c r="C10">
-        <v>13.65667418378703</v>
+        <v>11.53707234610248</v>
       </c>
       <c r="D10">
-        <v>4.520422266832156</v>
+        <v>5.167167530514305</v>
       </c>
       <c r="E10">
-        <v>7.125722546800646</v>
+        <v>12.41544858362888</v>
       </c>
       <c r="F10">
-        <v>23.30714276568022</v>
+        <v>26.20376620621698</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.506716116857349</v>
+        <v>9.849896505448648</v>
       </c>
       <c r="M10">
-        <v>14.07307536253906</v>
+        <v>15.19005049172731</v>
       </c>
       <c r="N10">
-        <v>11.41130722333263</v>
+        <v>18.03384609527445</v>
       </c>
       <c r="O10">
-        <v>17.62509600785211</v>
+        <v>23.10273681944911</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.31980849684986</v>
+        <v>17.27871705337084</v>
       </c>
       <c r="C11">
-        <v>13.97096607351961</v>
+        <v>11.66013701608393</v>
       </c>
       <c r="D11">
-        <v>4.587266605607988</v>
+        <v>5.188815307826541</v>
       </c>
       <c r="E11">
-        <v>7.057059557078555</v>
+        <v>12.38946742029878</v>
       </c>
       <c r="F11">
-        <v>23.88542251901052</v>
+        <v>26.26530547211666</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.587310273112249</v>
+        <v>9.850504878624486</v>
       </c>
       <c r="M11">
-        <v>14.55950977095615</v>
+        <v>15.27043723144002</v>
       </c>
       <c r="N11">
-        <v>11.27046423769043</v>
+        <v>17.99400693772245</v>
       </c>
       <c r="O11">
-        <v>17.93246989361284</v>
+        <v>23.10304496856792</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.64570044311012</v>
+        <v>17.40323155515513</v>
       </c>
       <c r="C12">
-        <v>14.08826247360158</v>
+        <v>11.70626557082461</v>
       </c>
       <c r="D12">
-        <v>4.612302565860342</v>
+        <v>5.196955464099913</v>
       </c>
       <c r="E12">
-        <v>7.031433354772644</v>
+        <v>12.37982649614589</v>
       </c>
       <c r="F12">
-        <v>24.105018507914</v>
+        <v>26.28972708571107</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.618114911827634</v>
+        <v>9.850935257959692</v>
       </c>
       <c r="M12">
-        <v>14.74006717420087</v>
+        <v>15.30109579543419</v>
       </c>
       <c r="N12">
-        <v>11.21755770697952</v>
+        <v>17.97919302236469</v>
       </c>
       <c r="O12">
-        <v>18.0509154359706</v>
+        <v>23.10406758069074</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.57581789828062</v>
+        <v>17.37647829724856</v>
       </c>
       <c r="C13">
-        <v>14.06307765350477</v>
+        <v>11.69635240514009</v>
       </c>
       <c r="D13">
-        <v>4.606923118521108</v>
+        <v>5.195204925244421</v>
       </c>
       <c r="E13">
-        <v>7.036935669585207</v>
+        <v>12.38189406510102</v>
       </c>
       <c r="F13">
-        <v>24.05769905346257</v>
+        <v>26.28441795668706</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.611468061874501</v>
+        <v>9.850833687664911</v>
       </c>
       <c r="M13">
-        <v>14.70134230394486</v>
+        <v>15.2944835668582</v>
       </c>
       <c r="N13">
-        <v>11.22893316938203</v>
+        <v>17.98237136901768</v>
       </c>
       <c r="O13">
-        <v>18.02531512770982</v>
+        <v>23.10380705254732</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.3467569984363</v>
+        <v>17.28898924573603</v>
       </c>
       <c r="C14">
-        <v>13.9806507910613</v>
+        <v>11.66394166794676</v>
       </c>
       <c r="D14">
-        <v>4.589331942040829</v>
+        <v>5.189486166872435</v>
       </c>
       <c r="E14">
-        <v>7.054943734283303</v>
+        <v>12.38867029978437</v>
       </c>
       <c r="F14">
-        <v>23.90347715441218</v>
+        <v>26.26729232720161</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.5898389321522</v>
+        <v>9.850536283134142</v>
       </c>
       <c r="M14">
-        <v>14.57443713126007</v>
+        <v>15.27295528279235</v>
       </c>
       <c r="N14">
-        <v>11.26610305621321</v>
+        <v>17.99278273625362</v>
       </c>
       <c r="O14">
-        <v>17.94217348012259</v>
+        <v>23.10311094355096</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.2055585262887</v>
+        <v>17.23521653595523</v>
       </c>
       <c r="C15">
-        <v>13.92993693348293</v>
+        <v>11.64402677736181</v>
       </c>
       <c r="D15">
-        <v>4.578520457201358</v>
+        <v>5.185975719458949</v>
       </c>
       <c r="E15">
-        <v>7.066023153173</v>
+        <v>12.39284664959589</v>
       </c>
       <c r="F15">
-        <v>23.80908836417257</v>
+        <v>26.25694756666055</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.576627306432865</v>
+        <v>9.850380133170122</v>
       </c>
       <c r="M15">
-        <v>14.49623069565071</v>
+        <v>15.25979634208009</v>
       </c>
       <c r="N15">
-        <v>11.28892616196416</v>
+        <v>17.9991954322046</v>
       </c>
       <c r="O15">
-        <v>17.89151333748895</v>
+        <v>23.10280253496498</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.38266635255378</v>
+        <v>16.92434228651574</v>
       </c>
       <c r="C16">
-        <v>13.63589608374651</v>
+        <v>11.5289648940549</v>
       </c>
       <c r="D16">
-        <v>4.516015819024553</v>
+        <v>5.165744894143677</v>
       </c>
       <c r="E16">
-        <v>7.130262086204396</v>
+        <v>12.41717419906017</v>
       </c>
       <c r="F16">
-        <v>23.26944316327402</v>
+        <v>26.19990167506954</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.501489636418108</v>
+        <v>9.849884783420897</v>
       </c>
       <c r="M16">
-        <v>14.04077334669771</v>
+        <v>15.18482864140866</v>
       </c>
       <c r="N16">
-        <v>11.42057189267092</v>
+        <v>18.03648783840173</v>
       </c>
       <c r="O16">
-        <v>17.60529600985081</v>
+        <v>23.10284344524714</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.86551454853896</v>
+        <v>16.73129274875405</v>
       </c>
       <c r="C17">
-        <v>13.452493647617</v>
+        <v>11.45756179810276</v>
       </c>
       <c r="D17">
-        <v>4.477192302816968</v>
+        <v>5.153234227316891</v>
       </c>
       <c r="E17">
-        <v>7.170334255918897</v>
+        <v>12.43245100431858</v>
       </c>
       <c r="F17">
-        <v>22.93961119944355</v>
+        <v>26.16691177085898</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.455915344291924</v>
+        <v>9.849938087996136</v>
       </c>
       <c r="M17">
-        <v>13.75482755267475</v>
+        <v>15.13924850643915</v>
       </c>
       <c r="N17">
-        <v>11.50210207953005</v>
+        <v>18.05985161768624</v>
       </c>
       <c r="O17">
-        <v>17.43337720895995</v>
+        <v>23.10448188293381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.5635012505608</v>
+        <v>16.6194347103233</v>
       </c>
       <c r="C18">
-        <v>13.34591101842908</v>
+        <v>11.41620084453282</v>
       </c>
       <c r="D18">
-        <v>4.45469029860265</v>
+        <v>5.146002534002359</v>
       </c>
       <c r="E18">
-        <v>7.193625476810733</v>
+        <v>12.44136763368883</v>
       </c>
       <c r="F18">
-        <v>22.75039236198222</v>
+        <v>26.14867811681939</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.429897095018798</v>
+        <v>9.850100287624082</v>
       </c>
       <c r="M18">
-        <v>13.58794347147085</v>
+        <v>15.11318932803747</v>
       </c>
       <c r="N18">
-        <v>11.54928155615904</v>
+        <v>18.07346881128057</v>
       </c>
       <c r="O18">
-        <v>17.33584611841223</v>
+        <v>23.10601699523926</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46045866802348</v>
+        <v>16.58142424528968</v>
       </c>
       <c r="C19">
-        <v>13.30963751106173</v>
+        <v>11.40214741711114</v>
       </c>
       <c r="D19">
-        <v>4.447042427664493</v>
+        <v>5.143547914787285</v>
       </c>
       <c r="E19">
-        <v>7.201553083171803</v>
+        <v>12.44440896805152</v>
       </c>
       <c r="F19">
-        <v>22.68641485865242</v>
+        <v>26.14263219666307</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.421121590334687</v>
+        <v>9.850177823040754</v>
       </c>
       <c r="M19">
-        <v>13.53102330484441</v>
+        <v>15.1043937771994</v>
       </c>
       <c r="N19">
-        <v>11.56530499959365</v>
+        <v>18.07811012784884</v>
       </c>
       <c r="O19">
-        <v>17.3030564246646</v>
+        <v>23.10663853512571</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.92103767709581</v>
+        <v>16.75192906277283</v>
       </c>
       <c r="C20">
-        <v>13.47213076636504</v>
+        <v>11.46519316581709</v>
       </c>
       <c r="D20">
-        <v>4.48134300588054</v>
+        <v>5.154569740545899</v>
       </c>
       <c r="E20">
-        <v>7.166043355826382</v>
+        <v>12.43081133193874</v>
       </c>
       <c r="F20">
-        <v>22.97467247856121</v>
+        <v>26.17034697311213</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.460746720843807</v>
+        <v>9.84991880577142</v>
       </c>
       <c r="M20">
-        <v>13.78551669047535</v>
+        <v>15.14408445657686</v>
       </c>
       <c r="N20">
-        <v>11.49339356667597</v>
+        <v>18.05734598862023</v>
       </c>
       <c r="O20">
-        <v>17.45153843175916</v>
+        <v>23.10424611824225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.41422347687011</v>
+        <v>17.31472526009174</v>
       </c>
       <c r="C21">
-        <v>14.00490851877175</v>
+        <v>11.67347453021112</v>
       </c>
       <c r="D21">
-        <v>4.594506500476625</v>
+        <v>5.191167480896461</v>
       </c>
       <c r="E21">
-        <v>7.049644118144513</v>
+        <v>12.38667459858298</v>
       </c>
       <c r="F21">
-        <v>23.94876010029326</v>
+        <v>26.27229230972749</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.596184273412249</v>
+        <v>9.850618217406172</v>
       </c>
       <c r="M21">
-        <v>14.6118108232674</v>
+        <v>15.27927291469536</v>
       </c>
       <c r="N21">
-        <v>11.25517381072109</v>
+        <v>17.98971728291943</v>
       </c>
       <c r="O21">
-        <v>17.96653867976087</v>
+        <v>23.10329082131135</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.35010308676937</v>
+        <v>17.67444871893892</v>
       </c>
       <c r="C22">
-        <v>14.34307545531032</v>
+        <v>11.80682842769713</v>
       </c>
       <c r="D22">
-        <v>4.666848279107465</v>
+        <v>5.214750650228784</v>
       </c>
       <c r="E22">
-        <v>6.975758597683529</v>
+        <v>12.35898001991687</v>
       </c>
       <c r="F22">
-        <v>24.58891963878375</v>
+        <v>26.34542889778534</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.686359306322337</v>
+        <v>9.852240625375268</v>
       </c>
       <c r="M22">
-        <v>15.13061951713239</v>
+        <v>15.3688864464927</v>
       </c>
       <c r="N22">
-        <v>11.10197321721898</v>
+        <v>17.94710478287547</v>
       </c>
       <c r="O22">
-        <v>18.31506289945365</v>
+        <v>23.10794658670709</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.85423645891465</v>
+        <v>17.48323412127834</v>
       </c>
       <c r="C23">
-        <v>14.16351963105131</v>
+        <v>11.73591646108008</v>
       </c>
       <c r="D23">
-        <v>4.62839008618906</v>
+        <v>5.202195343185988</v>
       </c>
       <c r="E23">
-        <v>7.014991004003466</v>
+        <v>12.37365601483699</v>
       </c>
       <c r="F23">
-        <v>24.24696672941093</v>
+        <v>26.30580368864528</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.638082955147873</v>
+        <v>9.851268398918332</v>
       </c>
       <c r="M23">
-        <v>14.85564863492989</v>
+        <v>15.32094959183528</v>
       </c>
       <c r="N23">
-        <v>11.18351376530675</v>
+        <v>17.96970301671952</v>
       </c>
       <c r="O23">
-        <v>18.12796072993568</v>
+        <v>23.10497863107964</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.89595030387794</v>
+        <v>16.74260209002846</v>
       </c>
       <c r="C24">
-        <v>13.46325637899082</v>
+        <v>11.46174398927726</v>
       </c>
       <c r="D24">
-        <v>4.479467038434413</v>
+        <v>5.153966076754709</v>
       </c>
       <c r="E24">
-        <v>7.167982483371996</v>
+        <v>12.43155221102696</v>
       </c>
       <c r="F24">
-        <v>22.95881999982051</v>
+        <v>26.16879163492854</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.458561884570331</v>
+        <v>9.849927113423993</v>
       </c>
       <c r="M24">
-        <v>13.77164989027463</v>
+        <v>15.14189766888968</v>
       </c>
       <c r="N24">
-        <v>11.49732972947188</v>
+        <v>18.05847820701938</v>
       </c>
       <c r="O24">
-        <v>17.44332366979856</v>
+        <v>23.10435085983831</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.60889636028513</v>
+        <v>15.91289847351181</v>
       </c>
       <c r="C25">
-        <v>12.66633467622291</v>
+        <v>11.15496236602506</v>
       </c>
       <c r="D25">
-        <v>4.312326645879931</v>
+        <v>5.100580398535953</v>
       </c>
       <c r="E25">
-        <v>7.342283516961212</v>
+        <v>12.49896871819288</v>
       </c>
       <c r="F25">
-        <v>21.58886070520144</v>
+        <v>26.04937746147631</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.272419724918708</v>
+        <v>9.853512081559842</v>
       </c>
       <c r="M25">
-        <v>12.56271699249991</v>
+        <v>14.95485454697831</v>
       </c>
       <c r="N25">
-        <v>11.84678526510829</v>
+        <v>18.16108336179724</v>
       </c>
       <c r="O25">
-        <v>16.75656829634986</v>
+        <v>23.12632647971856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_154/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.28031864006898</v>
+        <v>19.77123767931137</v>
       </c>
       <c r="C2">
-        <v>10.92053664895577</v>
+        <v>12.04586937563384</v>
       </c>
       <c r="D2">
-        <v>5.060179375518758</v>
+        <v>4.184189789588066</v>
       </c>
       <c r="E2">
-        <v>12.55291291216699</v>
+        <v>7.478531045956795</v>
       </c>
       <c r="F2">
-        <v>25.98620036343339</v>
+        <v>20.60252605270421</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.860504489982578</v>
+        <v>6.14221383249884</v>
       </c>
       <c r="M2">
-        <v>14.82307386167019</v>
+        <v>11.79746275294314</v>
       </c>
       <c r="N2">
-        <v>18.24257211158297</v>
+        <v>12.11389259385988</v>
       </c>
       <c r="O2">
-        <v>23.16192675530845</v>
+        <v>16.29565796066751</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.84093108786048</v>
+        <v>18.42829367585355</v>
       </c>
       <c r="C3">
-        <v>10.75685622766351</v>
+        <v>11.60575806388216</v>
       </c>
       <c r="D3">
-        <v>5.032157787610223</v>
+        <v>4.094488868191598</v>
       </c>
       <c r="E3">
-        <v>12.59217483257685</v>
+        <v>7.575787344994195</v>
       </c>
       <c r="F3">
-        <v>25.95894039593519</v>
+        <v>19.95139073058738</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.86796940765001</v>
+        <v>6.058446682682632</v>
       </c>
       <c r="M3">
-        <v>14.737808707223</v>
+        <v>11.25852960983893</v>
       </c>
       <c r="N3">
-        <v>18.30153048265195</v>
+        <v>12.30123712016482</v>
       </c>
       <c r="O3">
-        <v>23.19811678039142</v>
+        <v>16.01116253112223</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.56694563306105</v>
+        <v>17.55507301448811</v>
       </c>
       <c r="C4">
-        <v>10.65417043017142</v>
+        <v>11.32644193424769</v>
       </c>
       <c r="D4">
-        <v>5.014649981082597</v>
+        <v>4.038113857989839</v>
       </c>
       <c r="E4">
-        <v>12.61762104840495</v>
+        <v>7.637929101817615</v>
       </c>
       <c r="F4">
-        <v>25.94989977007697</v>
+        <v>19.56136630840725</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.873900732569469</v>
+        <v>6.009284010687588</v>
       </c>
       <c r="M4">
-        <v>14.68755931435057</v>
+        <v>10.91863962679221</v>
       </c>
       <c r="N4">
-        <v>18.33958109138847</v>
+        <v>12.419456972979</v>
       </c>
       <c r="O4">
-        <v>23.22626614977709</v>
+        <v>15.850132367624</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.45441237404889</v>
+        <v>17.18691977123183</v>
       </c>
       <c r="C5">
-        <v>10.61180508330514</v>
+        <v>11.2104369779328</v>
       </c>
       <c r="D5">
-        <v>5.007441558837296</v>
+        <v>4.014832534595504</v>
       </c>
       <c r="E5">
-        <v>12.62832814387292</v>
+        <v>7.663862427077698</v>
       </c>
       <c r="F5">
-        <v>25.94815357830808</v>
+        <v>19.40507973408113</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.876657197928937</v>
+        <v>5.989829913382074</v>
       </c>
       <c r="M5">
-        <v>14.66762743703651</v>
+        <v>10.77805777284487</v>
       </c>
       <c r="N5">
-        <v>18.35555340575683</v>
+        <v>12.46844470363521</v>
       </c>
       <c r="O5">
-        <v>23.23922446858853</v>
+        <v>15.78792025000178</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.43567834406985</v>
+        <v>17.12504259082427</v>
       </c>
       <c r="C6">
-        <v>10.6047398180716</v>
+        <v>11.19104597519013</v>
       </c>
       <c r="D6">
-        <v>5.006240209850445</v>
+        <v>4.010948641548208</v>
       </c>
       <c r="E6">
-        <v>12.63012645987443</v>
+        <v>7.668205488872442</v>
       </c>
       <c r="F6">
-        <v>25.94798070707382</v>
+        <v>19.37929426445879</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.877135418629786</v>
+        <v>5.986634854886878</v>
       </c>
       <c r="M6">
-        <v>14.66435114725347</v>
+        <v>10.75459494053576</v>
       </c>
       <c r="N6">
-        <v>18.35823380028428</v>
+        <v>12.47662843245879</v>
       </c>
       <c r="O6">
-        <v>23.24146589712077</v>
+        <v>15.77779493337093</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.56543130318199</v>
+        <v>17.55015790864422</v>
       </c>
       <c r="C7">
-        <v>10.65360114238102</v>
+        <v>11.32488613681833</v>
       </c>
       <c r="D7">
-        <v>5.014553061891352</v>
+        <v>4.037801100116466</v>
       </c>
       <c r="E7">
-        <v>12.61776408022724</v>
+        <v>7.638276377322799</v>
       </c>
       <c r="F7">
-        <v>25.94986837183609</v>
+        <v>19.55924758116199</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.873936532414616</v>
+        <v>6.009019285960826</v>
       </c>
       <c r="M7">
-        <v>14.68728827799356</v>
+        <v>10.91675182370108</v>
       </c>
       <c r="N7">
-        <v>18.33979460964699</v>
+        <v>12.42011433659127</v>
       </c>
       <c r="O7">
-        <v>23.22643489363529</v>
+        <v>15.84927959078005</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.12979048646461</v>
+        <v>19.31824125195868</v>
       </c>
       <c r="C8">
-        <v>10.86457061348768</v>
+        <v>11.896062738492</v>
       </c>
       <c r="D8">
-        <v>5.050581620160253</v>
+        <v>4.153541087336976</v>
       </c>
       <c r="E8">
-        <v>12.56617294193402</v>
+        <v>7.511561415341276</v>
       </c>
       <c r="F8">
-        <v>25.97520559019668</v>
+        <v>20.37610116729546</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.862798955286911</v>
+        <v>6.112865410958661</v>
       </c>
       <c r="M8">
-        <v>14.79324771467093</v>
+        <v>11.61360559662784</v>
       </c>
       <c r="N8">
-        <v>18.26251772875186</v>
+        <v>12.17783306712152</v>
       </c>
       <c r="O8">
-        <v>23.17317262950706</v>
+        <v>16.19472000172652</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.19609998333182</v>
+        <v>22.40294648027823</v>
       </c>
       <c r="C9">
-        <v>11.25969596024865</v>
+        <v>12.94017251526025</v>
       </c>
       <c r="D9">
-        <v>5.118738642219551</v>
+        <v>4.369453433261258</v>
       </c>
       <c r="E9">
-        <v>12.47559282237686</v>
+        <v>7.282337932230389</v>
       </c>
       <c r="F9">
-        <v>26.0857779604875</v>
+        <v>22.04727284911476</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.851629899209149</v>
+        <v>6.334085306581836</v>
       </c>
       <c r="M9">
-        <v>15.01698409123924</v>
+        <v>12.94741332125262</v>
       </c>
       <c r="N9">
-        <v>18.125601281507</v>
+        <v>11.72757417788566</v>
       </c>
       <c r="O9">
-        <v>23.11590196647006</v>
+        <v>16.98096262973658</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.94625651222384</v>
+        <v>24.4410609605027</v>
       </c>
       <c r="C10">
-        <v>11.53707234610248</v>
+        <v>13.65667418378721</v>
       </c>
       <c r="D10">
-        <v>5.167167530514305</v>
+        <v>4.520422266832255</v>
       </c>
       <c r="E10">
-        <v>12.41544858362888</v>
+        <v>7.125722546800585</v>
       </c>
       <c r="F10">
-        <v>26.20376620621698</v>
+        <v>23.30714276568019</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.849896505448648</v>
+        <v>6.506716116857297</v>
       </c>
       <c r="M10">
-        <v>15.19005049172731</v>
+        <v>14.07307536253906</v>
       </c>
       <c r="N10">
-        <v>18.03384609527445</v>
+        <v>11.41130722333263</v>
       </c>
       <c r="O10">
-        <v>23.10273681944911</v>
+        <v>17.62509600785213</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27871705337084</v>
+        <v>25.31980849684991</v>
       </c>
       <c r="C11">
-        <v>11.66013701608393</v>
+        <v>13.9709660735195</v>
       </c>
       <c r="D11">
-        <v>5.188815307826541</v>
+        <v>4.587266605608029</v>
       </c>
       <c r="E11">
-        <v>12.38946742029878</v>
+        <v>7.057059557078624</v>
       </c>
       <c r="F11">
-        <v>26.26530547211666</v>
+        <v>23.88542251901048</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.850504878624486</v>
+        <v>6.587310273112309</v>
       </c>
       <c r="M11">
-        <v>15.27043723144002</v>
+        <v>14.55950977095614</v>
       </c>
       <c r="N11">
-        <v>17.99400693772245</v>
+        <v>11.27046423769043</v>
       </c>
       <c r="O11">
-        <v>23.10304496856792</v>
+        <v>17.93246989361283</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.40323155515513</v>
+        <v>25.6457004431101</v>
       </c>
       <c r="C12">
-        <v>11.70626557082461</v>
+        <v>14.08826247360167</v>
       </c>
       <c r="D12">
-        <v>5.196955464099913</v>
+        <v>4.612302565860326</v>
       </c>
       <c r="E12">
-        <v>12.37982649614589</v>
+        <v>7.031433354772649</v>
       </c>
       <c r="F12">
-        <v>26.28972708571107</v>
+        <v>24.10501850791403</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.850935257959692</v>
+        <v>6.618114911827615</v>
       </c>
       <c r="M12">
-        <v>15.30109579543419</v>
+        <v>14.74006717420086</v>
       </c>
       <c r="N12">
-        <v>17.97919302236469</v>
+        <v>11.21755770697954</v>
       </c>
       <c r="O12">
-        <v>23.10406758069074</v>
+        <v>18.05091543597063</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.37647829724856</v>
+        <v>25.5758178982807</v>
       </c>
       <c r="C13">
-        <v>11.69635240514009</v>
+        <v>14.06307765350474</v>
       </c>
       <c r="D13">
-        <v>5.195204925244421</v>
+        <v>4.606923118521103</v>
       </c>
       <c r="E13">
-        <v>12.38189406510102</v>
+        <v>7.036935669585205</v>
       </c>
       <c r="F13">
-        <v>26.28441795668706</v>
+        <v>24.05769905346249</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.850833687664911</v>
+        <v>6.611468061874451</v>
       </c>
       <c r="M13">
-        <v>15.2944835668582</v>
+        <v>14.70134230394491</v>
       </c>
       <c r="N13">
-        <v>17.98237136901768</v>
+        <v>11.22893316938194</v>
       </c>
       <c r="O13">
-        <v>23.10380705254732</v>
+        <v>18.02531512770971</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.28898924573603</v>
+        <v>25.34675699843628</v>
       </c>
       <c r="C14">
-        <v>11.66394166794676</v>
+        <v>13.98065079106124</v>
       </c>
       <c r="D14">
-        <v>5.189486166872435</v>
+        <v>4.58933194204088</v>
       </c>
       <c r="E14">
-        <v>12.38867029978437</v>
+        <v>7.054943734283238</v>
       </c>
       <c r="F14">
-        <v>26.26729232720161</v>
+        <v>23.90347715441219</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.850536283134142</v>
+        <v>6.589838932152158</v>
       </c>
       <c r="M14">
-        <v>15.27295528279235</v>
+        <v>14.57443713126008</v>
       </c>
       <c r="N14">
-        <v>17.99278273625362</v>
+        <v>11.26610305621324</v>
       </c>
       <c r="O14">
-        <v>23.10311094355096</v>
+        <v>17.94217348012261</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.23521653595523</v>
+        <v>25.20555852628872</v>
       </c>
       <c r="C15">
-        <v>11.64402677736181</v>
+        <v>13.92993693348292</v>
       </c>
       <c r="D15">
-        <v>5.185975719458949</v>
+        <v>4.578520457201574</v>
       </c>
       <c r="E15">
-        <v>12.39284664959589</v>
+        <v>7.066023153173004</v>
       </c>
       <c r="F15">
-        <v>26.25694756666055</v>
+        <v>23.80908836417258</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.850380133170122</v>
+        <v>6.576627306432874</v>
       </c>
       <c r="M15">
-        <v>15.25979634208009</v>
+        <v>14.49623069565074</v>
       </c>
       <c r="N15">
-        <v>17.9991954322046</v>
+        <v>11.28892616196418</v>
       </c>
       <c r="O15">
-        <v>23.10280253496498</v>
+        <v>17.89151333748898</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.92434228651574</v>
+        <v>24.38266635255377</v>
       </c>
       <c r="C16">
-        <v>11.5289648940549</v>
+        <v>13.63589608374649</v>
       </c>
       <c r="D16">
-        <v>5.165744894143677</v>
+        <v>4.516015819024707</v>
       </c>
       <c r="E16">
-        <v>12.41717419906017</v>
+        <v>7.130262086204464</v>
       </c>
       <c r="F16">
-        <v>26.19990167506954</v>
+        <v>23.26944316327402</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.849884783420897</v>
+        <v>6.501489636418115</v>
       </c>
       <c r="M16">
-        <v>15.18482864140866</v>
+        <v>14.04077334669769</v>
       </c>
       <c r="N16">
-        <v>18.03648783840173</v>
+        <v>11.42057189267098</v>
       </c>
       <c r="O16">
-        <v>23.10284344524714</v>
+        <v>17.60529600985085</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.73129274875405</v>
+        <v>23.86551454853896</v>
       </c>
       <c r="C17">
-        <v>11.45756179810276</v>
+        <v>13.45249364761672</v>
       </c>
       <c r="D17">
-        <v>5.153234227316891</v>
+        <v>4.477192302816968</v>
       </c>
       <c r="E17">
-        <v>12.43245100431858</v>
+        <v>7.170334255918831</v>
       </c>
       <c r="F17">
-        <v>26.16691177085898</v>
+        <v>22.93961119944353</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.849938087996136</v>
+        <v>6.455915344291924</v>
       </c>
       <c r="M17">
-        <v>15.13924850643915</v>
+        <v>13.75482755267475</v>
       </c>
       <c r="N17">
-        <v>18.05985161768624</v>
+        <v>11.50210207953002</v>
       </c>
       <c r="O17">
-        <v>23.10448188293381</v>
+        <v>17.43337720895994</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.6194347103233</v>
+        <v>23.56350125056081</v>
       </c>
       <c r="C18">
-        <v>11.41620084453282</v>
+        <v>13.34591101842927</v>
       </c>
       <c r="D18">
-        <v>5.146002534002359</v>
+        <v>4.45469029860265</v>
       </c>
       <c r="E18">
-        <v>12.44136763368883</v>
+        <v>7.193625476810865</v>
       </c>
       <c r="F18">
-        <v>26.14867811681939</v>
+        <v>22.7503923619822</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.850100287624082</v>
+        <v>6.429897095018842</v>
       </c>
       <c r="M18">
-        <v>15.11318932803747</v>
+        <v>13.58794347147085</v>
       </c>
       <c r="N18">
-        <v>18.07346881128057</v>
+        <v>11.54928155615914</v>
       </c>
       <c r="O18">
-        <v>23.10601699523926</v>
+        <v>17.33584611841222</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.58142424528968</v>
+        <v>23.46045866802346</v>
       </c>
       <c r="C19">
-        <v>11.40214741711114</v>
+        <v>13.30963751106158</v>
       </c>
       <c r="D19">
-        <v>5.143547914787285</v>
+        <v>4.447042427664771</v>
       </c>
       <c r="E19">
-        <v>12.44440896805152</v>
+        <v>7.201553083171805</v>
       </c>
       <c r="F19">
-        <v>26.14263219666307</v>
+        <v>22.68641485865236</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.850177823040754</v>
+        <v>6.421121590334715</v>
       </c>
       <c r="M19">
-        <v>15.1043937771994</v>
+        <v>13.53102330484438</v>
       </c>
       <c r="N19">
-        <v>18.07811012784884</v>
+        <v>11.56530499959373</v>
       </c>
       <c r="O19">
-        <v>23.10663853512571</v>
+        <v>17.30305642466464</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.75192906277283</v>
+        <v>23.92103767709584</v>
       </c>
       <c r="C20">
-        <v>11.46519316581709</v>
+        <v>13.47213076636523</v>
       </c>
       <c r="D20">
-        <v>5.154569740545899</v>
+        <v>4.481343005880424</v>
       </c>
       <c r="E20">
-        <v>12.43081133193874</v>
+        <v>7.166043355826384</v>
       </c>
       <c r="F20">
-        <v>26.17034697311213</v>
+        <v>22.97467247856121</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.84991880577142</v>
+        <v>6.460746720843773</v>
       </c>
       <c r="M20">
-        <v>15.14408445657686</v>
+        <v>13.78551669047539</v>
       </c>
       <c r="N20">
-        <v>18.05734598862023</v>
+        <v>11.493393566676</v>
       </c>
       <c r="O20">
-        <v>23.10424611824225</v>
+        <v>17.45153843175914</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.31472526009174</v>
+        <v>25.41422347687015</v>
       </c>
       <c r="C21">
-        <v>11.67347453021112</v>
+        <v>14.00490851877166</v>
       </c>
       <c r="D21">
-        <v>5.191167480896461</v>
+        <v>4.594506500476569</v>
       </c>
       <c r="E21">
-        <v>12.38667459858298</v>
+        <v>7.049644118144379</v>
       </c>
       <c r="F21">
-        <v>26.27229230972749</v>
+        <v>23.94876010029322</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.850618217406172</v>
+        <v>6.596184273412181</v>
       </c>
       <c r="M21">
-        <v>15.27927291469536</v>
+        <v>14.61181082326744</v>
       </c>
       <c r="N21">
-        <v>17.98971728291943</v>
+        <v>11.25517381072109</v>
       </c>
       <c r="O21">
-        <v>23.10329082131135</v>
+        <v>17.96653867976082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67444871893892</v>
+        <v>26.35010308676935</v>
       </c>
       <c r="C22">
-        <v>11.80682842769713</v>
+        <v>14.3430754553104</v>
       </c>
       <c r="D22">
-        <v>5.214750650228784</v>
+        <v>4.666848279107549</v>
       </c>
       <c r="E22">
-        <v>12.35898001991687</v>
+        <v>6.975758597683593</v>
       </c>
       <c r="F22">
-        <v>26.34542889778534</v>
+        <v>24.5889196387838</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.852240625375268</v>
+        <v>6.686359306322334</v>
       </c>
       <c r="M22">
-        <v>15.3688864464927</v>
+        <v>15.13061951713236</v>
       </c>
       <c r="N22">
-        <v>17.94710478287547</v>
+        <v>11.10197321721897</v>
       </c>
       <c r="O22">
-        <v>23.10794658670709</v>
+        <v>18.31506289945371</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.48323412127834</v>
+        <v>25.85423645891461</v>
       </c>
       <c r="C23">
-        <v>11.73591646108008</v>
+        <v>14.16351963105148</v>
       </c>
       <c r="D23">
-        <v>5.202195343185988</v>
+        <v>4.628390086189115</v>
       </c>
       <c r="E23">
-        <v>12.37365601483699</v>
+        <v>7.01499100400347</v>
       </c>
       <c r="F23">
-        <v>26.30580368864528</v>
+        <v>24.24696672941089</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.851268398918332</v>
+        <v>6.638082955147858</v>
       </c>
       <c r="M23">
-        <v>15.32094959183528</v>
+        <v>14.85564863492989</v>
       </c>
       <c r="N23">
-        <v>17.96970301671952</v>
+        <v>11.18351376530672</v>
       </c>
       <c r="O23">
-        <v>23.10497863107964</v>
+        <v>18.12796072993566</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.74260209002846</v>
+        <v>23.89595030387801</v>
       </c>
       <c r="C24">
-        <v>11.46174398927726</v>
+        <v>13.46325637899083</v>
       </c>
       <c r="D24">
-        <v>5.153966076754709</v>
+        <v>4.479467038434477</v>
       </c>
       <c r="E24">
-        <v>12.43155221102696</v>
+        <v>7.16798248337193</v>
       </c>
       <c r="F24">
-        <v>26.16879163492854</v>
+        <v>22.9588199998204</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.849927113423993</v>
+        <v>6.458561884570288</v>
       </c>
       <c r="M24">
-        <v>15.14189766888968</v>
+        <v>13.77164989027466</v>
       </c>
       <c r="N24">
-        <v>18.05847820701938</v>
+        <v>11.49732972947182</v>
       </c>
       <c r="O24">
-        <v>23.10435085983831</v>
+        <v>17.44332366979845</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.91289847351181</v>
+        <v>21.60889636028514</v>
       </c>
       <c r="C25">
-        <v>11.15496236602506</v>
+        <v>12.66633467622291</v>
       </c>
       <c r="D25">
-        <v>5.100580398535953</v>
+        <v>4.312326645879975</v>
       </c>
       <c r="E25">
-        <v>12.49896871819288</v>
+        <v>7.342283516961275</v>
       </c>
       <c r="F25">
-        <v>26.04937746147631</v>
+        <v>21.58886070520141</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.853512081559842</v>
+        <v>6.272419724918748</v>
       </c>
       <c r="M25">
-        <v>14.95485454697831</v>
+        <v>12.56271699249992</v>
       </c>
       <c r="N25">
-        <v>18.16108336179724</v>
+        <v>11.84678526510829</v>
       </c>
       <c r="O25">
-        <v>23.12632647971856</v>
+        <v>16.75656829634984</v>
       </c>
     </row>
   </sheetData>
